--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目小计划" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,14 +375,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -405,13 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -437,17 +429,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -725,23 +716,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="6" width="5.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>42989</v>
       </c>
@@ -778,10 +772,10 @@
       <c r="M1" s="4">
         <v>43000</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="10">
         <v>43001</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="10">
         <v>43002</v>
       </c>
       <c r="P1" s="4">
@@ -802,336 +796,407 @@
       <c r="U1" s="4">
         <v>43008</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="10">
+        <v>43009</v>
+      </c>
+      <c r="W1" s="10">
+        <v>43010</v>
+      </c>
+      <c r="X1" s="10">
+        <v>43011</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>43012</v>
+      </c>
+      <c r="Z1" s="10">
+        <v>43013</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>43014</v>
+      </c>
+      <c r="AB1" s="10">
+        <v>43015</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>43016</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>43017</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>26</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD15" s="6"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="34" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="11"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="11"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="U47" s="6"/>
+      <c r="AD47" s="6"/>
+    </row>
+    <row r="48" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+    <row r="52" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/01.项目启动/4.项目计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\01.项目启动\4.项目计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目小计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -338,11 +338,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,10 +437,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -457,6 +457,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,21 +730,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="6" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="6" width="5.375" hidden="1" customWidth="1"/>
+    <col min="7" max="13" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="4" customFormat="1">
       <c r="B1" s="4">
         <v>42989</v>
       </c>
@@ -803,17 +806,17 @@
         <v>43008</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -827,218 +830,218 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="9" customFormat="1">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="9" customFormat="1">
       <c r="A35" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1051,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1057,12 +1060,12 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" s="9" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1076,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1086,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1095,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -1101,34 +1104,34 @@
       <c r="T47" s="6"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
     </row>
-    <row r="49" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" s="9" customFormat="1">
       <c r="A49" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" s="9" customFormat="1">
       <c r="A53" s="10" t="s">
         <v>23</v>
       </c>

--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -731,8 +731,8 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V54" sqref="V54"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\01.项目启动\4.项目计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/01.项目启动/4.项目计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目小计划" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>项目小计划（动态页面开发）</t>
     <rPh sb="0" eb="1">
@@ -312,25 +312,167 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>帆软开发-李阳</t>
-    <rPh sb="0" eb="1">
-      <t>fan'ruan</t>
+    <t>主题开发</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ti</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual leave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-李阳</t>
+    <rPh sb="3" eb="4">
+      <t>li'yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调研-张庆岩</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>li'yang</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题开发</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'fa</t>
+      <t>zhang'qing'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系统调研</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老系统调研</t>
+    <rPh sb="0" eb="1">
+      <t>lao'xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构-周龙</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhou'long</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统整体架构</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标定义-郭海洋</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo'hai'yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v2.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v3.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v2.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v3.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -338,11 +480,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +557,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,11 +584,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -448,6 +623,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,23 +910,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:AR69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT70" sqref="AT70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="6" width="5.375" hidden="1" customWidth="1"/>
-    <col min="7" max="13" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="13" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1">
+    <row r="1" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>42989</v>
       </c>
@@ -805,20 +994,89 @@
       <c r="U1" s="4">
         <v>43008</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="4">
+        <v>43017</v>
+      </c>
+      <c r="W1" s="4">
+        <v>43018</v>
+      </c>
+      <c r="X1" s="4">
+        <v>43019</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>43020</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>43021</v>
+      </c>
+      <c r="AA1" s="7">
+        <v>43022</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>43023</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>43024</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>43025</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>43026</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>43027</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>43028</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>43029</v>
+      </c>
+      <c r="AI1" s="7">
+        <v>43030</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>43031</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>43032</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>43033</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>43034</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>43035</v>
+      </c>
+      <c r="AO1" s="7">
+        <v>43036</v>
+      </c>
+      <c r="AP1" s="7">
+        <v>43037</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>43038</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -829,219 +1087,268 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="6"/>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1">
+    <row r="32" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:21" s="9" customFormat="1">
+    <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1358,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1060,12 +1367,18 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:21" s="9" customFormat="1">
+    <row r="43" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1075,65 +1388,219 @@
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="13"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="11"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
       <c r="U47" s="11"/>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="W47" s="11"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="11"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" s="9" customFormat="1">
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AO49" s="8"/>
+      <c r="AP49" s="8"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="Z50" s="6"/>
+      <c r="AC50" s="6"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" s="9" customFormat="1">
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+    </row>
+    <row r="53" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
+      <c r="AN60" s="6"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="G69" s="13"/>
+      <c r="H69" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>项目小计划（动态页面开发）</t>
     <rPh sb="0" eb="1">
@@ -473,6 +473,195 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益类内容</t>
+    <rPh sb="0" eb="1">
+      <t>quan'yi'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管全景</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构透视</t>
+    <rPh sb="0" eb="1">
+      <t>ji'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'sh</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场规模</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'mo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标比对</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'dui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>zi'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情信息监控</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务报表（参考 大宗类）</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报</t>
+    <rPh sb="0" eb="1">
+      <t>yue'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年报</t>
+    <rPh sb="0" eb="1">
+      <t>nian'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调研报告</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构方案</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管报告</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>季报</t>
+    <rPh sb="0" eb="1">
+      <t>ji'bao</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -526,7 +715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +764,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -603,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -612,15 +813,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -630,6 +826,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -910,157 +1116,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR69"/>
+  <dimension ref="A1:AR115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT70" sqref="AT70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X103" sqref="X103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="13" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="5.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="5.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="16" max="21" width="5.33203125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="33" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="40" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4">
+    <row r="1" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17">
         <v>42989</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="17">
         <v>42990</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="17">
         <v>42991</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="17">
         <v>42992</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="17">
         <v>42993</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="17">
         <v>42994</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="17">
         <v>42995</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="17">
         <v>42996</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="17">
         <v>42997</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="17">
         <v>42998</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="17">
         <v>42999</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="17">
         <v>43000</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="18">
         <v>43001</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="18">
         <v>43002</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="17">
         <v>43003</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="17">
         <v>43004</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="17">
         <v>43005</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="17">
         <v>43006</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="17">
         <v>43007</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="17">
         <v>43008</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="17">
         <v>43017</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="17">
         <v>43018</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="17">
         <v>43019</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="17">
         <v>43020</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="17">
         <v>43021</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="AA1" s="18">
         <v>43022</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="18">
         <v>43023</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="17">
         <v>43024</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="17">
         <v>43025</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="17">
         <v>43026</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="17">
         <v>43027</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="17">
         <v>43028</v>
       </c>
-      <c r="AH1" s="7">
+      <c r="AH1" s="18">
         <v>43029</v>
       </c>
-      <c r="AI1" s="7">
+      <c r="AI1" s="18">
         <v>43030</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="17">
         <v>43031</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="17">
         <v>43032</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="17">
         <v>43033</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="17">
         <v>43034</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="17">
         <v>43035</v>
       </c>
-      <c r="AO1" s="7">
+      <c r="AO1" s="18">
         <v>43036</v>
       </c>
-      <c r="AP1" s="7">
+      <c r="AP1" s="18">
         <v>43037</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="17">
         <v>43038</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="17">
         <v>43039</v>
       </c>
     </row>
@@ -1070,7 +1276,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1078,60 +1284,60 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1142,36 +1348,36 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1182,8 +1388,8 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1194,36 +1400,36 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AC22" s="6"/>
+      <c r="Z22" s="5"/>
+      <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1234,372 +1440,681 @@
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" s="15"/>
+      <c r="AJ29" s="15"/>
+    </row>
+    <row r="30" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+    </row>
+    <row r="34" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN36" s="15"/>
+      <c r="AQ36" s="15"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR41" s="15"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR42" s="15"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR43" s="15"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR44" s="15"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR45" s="15"/>
+    </row>
+    <row r="46" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="12"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="6"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="11"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="11"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AO49" s="8"/>
-      <c r="AP49" s="8"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z50" s="6"/>
-      <c r="AC50" s="6"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-    </row>
-    <row r="53" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="8"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="8"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="AJ57" s="6"/>
-      <c r="AK57" s="6"/>
-      <c r="AL57" s="6"/>
-      <c r="AM57" s="6"/>
-      <c r="AN57" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="6"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="6"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="8"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="8"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="6"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="5"/>
+      <c r="AC72" s="5"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+    </row>
+    <row r="75" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+    </row>
+    <row r="77" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG79" s="15"/>
+      <c r="AJ79" s="15"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+    </row>
+    <row r="81" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="15"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM84" s="15"/>
+      <c r="AN84" s="15"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN85" s="15"/>
+      <c r="AQ85" s="15"/>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ86" s="15"/>
+      <c r="AR86" s="15"/>
+    </row>
+    <row r="87" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR88" s="15"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR89" s="15"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR90" s="15"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR91" s="15"/>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR92" s="15"/>
+    </row>
+    <row r="93" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="6"/>
+      <c r="AO93" s="6"/>
+      <c r="AP93" s="6"/>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+      <c r="AM103" s="5"/>
+      <c r="AN103" s="5"/>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="AQ104" s="5"/>
+      <c r="AR104" s="5"/>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="AJ60" s="6"/>
-      <c r="AK60" s="6"/>
-      <c r="AL60" s="6"/>
-      <c r="AM60" s="6"/>
-      <c r="AN60" s="6"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="AQ107" s="5"/>
+      <c r="AR107" s="5"/>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+      <c r="AM111" s="5"/>
+      <c r="AN111" s="5"/>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="AM112" s="5"/>
+      <c r="AN112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="G69" s="13"/>
-      <c r="H69" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G115" s="10"/>
+      <c r="H115" t="s">
         <v>26</v>
       </c>
     </row>

--- a/01.项目启动/4.项目计划/项目小计划调整.xlsx
+++ b/01.项目启动/4.项目计划/项目小计划调整.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="项目小计划" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>项目小计划（动态页面开发）</t>
     <rPh sb="0" eb="1">
@@ -319,10 +319,6 @@
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>annual leave</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -333,7 +329,464 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>系统调研-张庆岩</t>
+    <t>新系统调研</t>
+    <rPh sb="0" eb="1">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老系统调研</t>
+    <rPh sb="0" eb="1">
+      <t>lao'xi'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构-周龙</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhou'long</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统整体架构</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标定义-郭海洋</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo'hai'yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v2.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（大宗类v3.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v2.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标（权益类v3.0）</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>quan'yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益类内容</t>
+    <rPh sb="0" eb="1">
+      <t>quan'yi'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管全景</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构透视</t>
+    <rPh sb="0" eb="1">
+      <t>ji'gou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'sh</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场规模</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gui'mo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标比对</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'dui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金风险监控</t>
+    <rPh sb="0" eb="1">
+      <t>zi'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情信息监控</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian'kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务报表（参考 大宗类）</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da'zong'lei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周报</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报</t>
+    <rPh sb="0" eb="1">
+      <t>yue'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年报</t>
+    <rPh sb="0" eb="1">
+      <t>nian'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调研报告</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统架构方案</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管报告</t>
+    <rPh sb="0" eb="1">
+      <t>jian'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>季报</t>
+    <rPh sb="0" eb="1">
+      <t>ji'bao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP系统部署</t>
+    <rPh sb="2" eb="3">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度信息</t>
+    <rPh sb="0" eb="1">
+      <t>wei'du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实表数据</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETL开发-鲁军、张庆岩</t>
+    <rPh sb="3" eb="4">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu'jun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang'qing'yan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR报表页面数据</t>
+    <rPh sb="2" eb="3">
+      <t>bao'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情数据对接</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'jie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商数据对接</t>
+    <rPh sb="0" eb="1">
+      <t>gong'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'jie</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信平台接口开发</t>
+    <rPh sb="0" eb="1">
+      <t>duan'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信接口开发</t>
+    <rPh sb="0" eb="1">
+      <t>wei'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据接口设计</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录表单开发</t>
+    <rPh sb="0" eb="1">
+      <t>bu'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调研-张庆岩、陆星、海洋</t>
     <rPh sb="0" eb="1">
       <t>xi'tong</t>
     </rPh>
@@ -343,325 +796,50 @@
     <rPh sb="5" eb="6">
       <t>zhang'qing'yan</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新系统调研</t>
-    <rPh sb="0" eb="1">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>diao'yan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>老系统调研</t>
-    <rPh sb="0" eb="1">
-      <t>lao'xi'tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>diao'yan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统架构-周龙</t>
-    <rPh sb="0" eb="1">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia'gou</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhou'long</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统整体架构</t>
-    <rPh sb="0" eb="1">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zheng'ti</t>
+    <rPh sb="9" eb="10">
+      <t>lu'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hai'yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP部署文档</t>
+    <rPh sb="2" eb="3">
+      <t>bu'shu</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jia'gou</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标定义-郭海洋</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ding'yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guo'hai'yang</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（大宗类v1.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'zong'lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（大宗类v2.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'zong'lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（大宗类v3.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'zong'lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（权益类v1.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>quan'yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（权益类v2.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>quan'yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标（权益类v3.0）</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>quan'yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权益类内容</t>
-    <rPh sb="0" eb="1">
-      <t>quan'yi'lei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监管全景</t>
-    <rPh sb="0" eb="1">
-      <t>jian'guan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>quan'jing</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构透视</t>
-    <rPh sb="0" eb="1">
-      <t>ji'gou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tou'sh</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场规模</t>
-    <rPh sb="0" eb="1">
-      <t>shi'chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gui'mo</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标比对</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bi'dui</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户风险监控</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'xian</t>
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据仓库设计</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cang'ku</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jian'kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品风险监控</t>
-    <rPh sb="0" eb="1">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'xian</t>
-    </rPh>
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发-左青贝、周坤江</t>
     <rPh sb="4" eb="5">
-      <t>jian'kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金风险监控</t>
-    <rPh sb="0" eb="1">
-      <t>zi'jin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>feng'xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>舆情信息监控</t>
-    <rPh sb="0" eb="1">
-      <t>yu'qing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'xi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务报表（参考 大宗类）</t>
-    <rPh sb="0" eb="1">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'biao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>can'kao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>da'zong'lei</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周报</t>
-    <rPh sb="0" eb="1">
-      <t>zhou'bao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报</t>
-    <rPh sb="0" eb="1">
-      <t>yue'bao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年报</t>
-    <rPh sb="0" eb="1">
-      <t>nian'bao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监管</t>
-    <rPh sb="0" eb="1">
-      <t>jian'guan</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统调研报告</t>
-    <rPh sb="0" eb="1">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>diao'yan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bao'gao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统架构方案</t>
-    <rPh sb="0" eb="1">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jia'gou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'an</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监管报告</t>
-    <rPh sb="0" eb="1">
-      <t>jian'guan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'gao</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>季报</t>
-    <rPh sb="0" eb="1">
-      <t>ji'bao</t>
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'qing'bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhou'kun'jiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiang</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -804,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -836,6 +1014,12 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1116,19 +1300,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR115"/>
+  <dimension ref="A1:CA127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X103" sqref="X103"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AV107" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="13" width="5.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="5.33203125" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="15" width="5.33203125" style="6" customWidth="1"/>
+    <col min="16" max="21" width="5.33203125" customWidth="1"/>
     <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -1137,9 +1323,21 @@
     <col min="36" max="40" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="61" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="77" max="79" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17">
         <v>42989</v>
       </c>
@@ -1269,18 +1467,123 @@
       <c r="AR1" s="17">
         <v>43039</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS1" s="17">
+        <v>43040</v>
+      </c>
+      <c r="AT1" s="17">
+        <v>43041</v>
+      </c>
+      <c r="AU1" s="17">
+        <v>43042</v>
+      </c>
+      <c r="AV1" s="18">
+        <v>43043</v>
+      </c>
+      <c r="AW1" s="18">
+        <v>43044</v>
+      </c>
+      <c r="AX1" s="17">
+        <v>43045</v>
+      </c>
+      <c r="AY1" s="17">
+        <v>43046</v>
+      </c>
+      <c r="AZ1" s="17">
+        <v>43047</v>
+      </c>
+      <c r="BA1" s="17">
+        <v>43048</v>
+      </c>
+      <c r="BB1" s="17">
+        <v>43049</v>
+      </c>
+      <c r="BC1" s="18">
+        <v>43050</v>
+      </c>
+      <c r="BD1" s="18">
+        <v>43051</v>
+      </c>
+      <c r="BE1" s="17">
+        <v>43052</v>
+      </c>
+      <c r="BF1" s="17">
+        <v>43053</v>
+      </c>
+      <c r="BG1" s="17">
+        <v>43054</v>
+      </c>
+      <c r="BH1" s="17">
+        <v>43055</v>
+      </c>
+      <c r="BI1" s="17">
+        <v>43056</v>
+      </c>
+      <c r="BJ1" s="18">
+        <v>43057</v>
+      </c>
+      <c r="BK1" s="18">
+        <v>43058</v>
+      </c>
+      <c r="BL1" s="17">
+        <v>43059</v>
+      </c>
+      <c r="BM1" s="17">
+        <v>43060</v>
+      </c>
+      <c r="BN1" s="17">
+        <v>43061</v>
+      </c>
+      <c r="BO1" s="17">
+        <v>43062</v>
+      </c>
+      <c r="BP1" s="17">
+        <v>43063</v>
+      </c>
+      <c r="BQ1" s="18">
+        <v>43064</v>
+      </c>
+      <c r="BR1" s="18">
+        <v>43065</v>
+      </c>
+      <c r="BS1" s="17">
+        <v>43066</v>
+      </c>
+      <c r="BT1" s="17">
+        <v>43067</v>
+      </c>
+      <c r="BU1" s="17">
+        <v>43068</v>
+      </c>
+      <c r="BV1" s="17">
+        <v>43069</v>
+      </c>
+      <c r="BW1" s="18">
+        <v>43070</v>
+      </c>
+      <c r="BX1" s="18">
+        <v>43071</v>
+      </c>
+      <c r="BY1" s="17">
+        <v>43072</v>
+      </c>
+      <c r="BZ1" s="17">
+        <v>43073</v>
+      </c>
+      <c r="CA1" s="17">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1311,167 +1614,177 @@
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
     </row>
-    <row r="28" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="6"/>
+      <c r="BQ28" s="6"/>
+      <c r="BR28" s="6"/>
+      <c r="BW28" s="6"/>
+      <c r="BX28" s="6"/>
+    </row>
+    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG29" s="15"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
@@ -1479,29 +1792,39 @@
       <c r="AI30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="6"/>
+      <c r="BQ30" s="6"/>
+      <c r="BR30" s="6"/>
+      <c r="BW30" s="6"/>
+      <c r="BX30" s="6"/>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="15"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL33" s="15"/>
       <c r="AM33" s="15"/>
     </row>
-    <row r="34" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
@@ -1511,41 +1834,51 @@
       <c r="AI34" s="6"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
+      <c r="BJ34" s="6"/>
+      <c r="BK34" s="6"/>
+      <c r="BQ34" s="6"/>
+      <c r="BR34" s="6"/>
+      <c r="BW34" s="6"/>
+      <c r="BX34" s="6"/>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN36" s="15"/>
       <c r="AQ36" s="15"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AQ37" s="15"/>
       <c r="AR37" s="15"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -1553,40 +1886,50 @@
       <c r="AI40" s="6"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="6"/>
+      <c r="BQ40" s="6"/>
+      <c r="BR40" s="6"/>
+      <c r="BW40" s="6"/>
+      <c r="BX40" s="6"/>
+    </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AR41" s="15"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AR42" s="15"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>20</v>
       </c>
       <c r="AR43" s="15"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>21</v>
       </c>
       <c r="AR44" s="15"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>22</v>
       </c>
       <c r="AR45" s="15"/>
     </row>
-    <row r="46" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
@@ -1594,478 +1937,634 @@
       <c r="AI46" s="6"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="6"/>
+      <c r="BQ46" s="6"/>
+      <c r="BR46" s="6"/>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1</v>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AO50" s="6"/>
+      <c r="AP50" s="6"/>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="6"/>
+      <c r="BC50" s="6"/>
+      <c r="BD50" s="6"/>
+      <c r="BJ50" s="6"/>
+      <c r="BK50" s="6"/>
+      <c r="BQ50" s="6"/>
+      <c r="BR50" s="6"/>
+      <c r="BW50" s="6"/>
+      <c r="BX50" s="6"/>
+    </row>
+    <row r="51" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV51" s="6"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+      <c r="BJ51" s="6"/>
+      <c r="BK51" s="6"/>
+      <c r="BQ51" s="6"/>
+      <c r="BR51" s="6"/>
+      <c r="BW51" s="6"/>
+      <c r="BX51" s="6"/>
+    </row>
+    <row r="52" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
-      <c r="AO54" s="6"/>
-      <c r="AP54" s="6"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="6"/>
+      <c r="BC55" s="6"/>
+      <c r="BD55" s="6"/>
+      <c r="BJ55" s="6"/>
+      <c r="BK55" s="6"/>
+      <c r="BQ55" s="6"/>
+      <c r="BR55" s="6"/>
+      <c r="BW55" s="6"/>
+      <c r="BX55" s="6"/>
+    </row>
+    <row r="56" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AH57" s="6"/>
-      <c r="AI57" s="6"/>
-      <c r="AO57" s="6"/>
-      <c r="AP57" s="6"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
+      <c r="BQ58" s="6"/>
+      <c r="BR58" s="6"/>
+      <c r="BW58" s="6"/>
+      <c r="BX58" s="6"/>
+    </row>
+    <row r="59" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="9"/>
-      <c r="P64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
-    <row r="65" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="6"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="6"/>
+      <c r="BC66" s="6"/>
+      <c r="BD66" s="6"/>
+      <c r="BJ66" s="6"/>
+      <c r="BK66" s="6"/>
+      <c r="BQ66" s="6"/>
+      <c r="BR66" s="6"/>
+      <c r="BW66" s="6"/>
+      <c r="BX66" s="6"/>
+    </row>
+    <row r="67" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="10"/>
+      <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q68" s="5"/>
       <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
+      <c r="S68" s="8"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
+      <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
+      <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+    </row>
+    <row r="70" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="8"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="R70" s="8"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="8"/>
+    </row>
+    <row r="71" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA71" s="6"/>
-      <c r="AB71" s="6"/>
-      <c r="AH71" s="6"/>
-      <c r="AI71" s="6"/>
-      <c r="AO71" s="6"/>
-      <c r="AP71" s="6"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AO72" s="6"/>
+      <c r="AP72" s="6"/>
+      <c r="AV72" s="6"/>
+      <c r="AW72" s="6"/>
+      <c r="BC72" s="6"/>
+      <c r="BD72" s="6"/>
+      <c r="BJ72" s="6"/>
+      <c r="BK72" s="6"/>
+      <c r="BQ72" s="6"/>
+      <c r="BR72" s="6"/>
+      <c r="BW72" s="6"/>
+      <c r="BX72" s="6"/>
+    </row>
+    <row r="73" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AC72" s="5"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="Z73" s="5"/>
+      <c r="AC73" s="5"/>
+    </row>
+    <row r="74" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+    </row>
+    <row r="75" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
-    </row>
-    <row r="75" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+    </row>
+    <row r="76" spans="1:76" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV76" s="6"/>
+      <c r="AW76" s="6"/>
+      <c r="BC76" s="6"/>
+      <c r="BD76" s="6"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="6"/>
+      <c r="BQ76" s="6"/>
+      <c r="BR76" s="6"/>
+      <c r="BW76" s="6"/>
+      <c r="BX76" s="6"/>
+    </row>
+    <row r="77" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+    </row>
+    <row r="78" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="BC78" s="6"/>
+      <c r="BD78" s="6"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
+      <c r="BQ78" s="6"/>
+      <c r="BR78" s="6"/>
+      <c r="BW78" s="6"/>
+      <c r="BX78" s="6"/>
+    </row>
+    <row r="79" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-    </row>
-    <row r="77" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+    </row>
+    <row r="80" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG80" s="15"/>
+      <c r="AJ80" s="15"/>
+    </row>
+    <row r="81" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AH77" s="6"/>
-      <c r="AI77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="6"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+    </row>
+    <row r="82" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BQ82" s="6"/>
+      <c r="BR82" s="6"/>
+      <c r="BW82" s="6"/>
+      <c r="BX82" s="6"/>
+    </row>
+    <row r="83" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG79" s="15"/>
-      <c r="AJ79" s="15"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+    </row>
+    <row r="84" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-    </row>
-    <row r="81" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AH81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AO81" s="6"/>
-      <c r="AP81" s="6"/>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="15"/>
+    </row>
+    <row r="85" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="AM85" s="15"/>
+      <c r="AN85" s="15"/>
+    </row>
+    <row r="86" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="15"/>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="AN86" s="15"/>
+      <c r="AQ86" s="15"/>
+    </row>
+    <row r="87" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ87" s="15"/>
+      <c r="AR87" s="15"/>
+    </row>
+    <row r="88" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AM84" s="15"/>
-      <c r="AN84" s="15"/>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AV88" s="6"/>
+      <c r="AW88" s="6"/>
+      <c r="BC88" s="6"/>
+      <c r="BD88" s="6"/>
+      <c r="BJ88" s="6"/>
+      <c r="BK88" s="6"/>
+      <c r="BQ88" s="6"/>
+      <c r="BR88" s="6"/>
+      <c r="BW88" s="6"/>
+      <c r="BX88" s="6"/>
+    </row>
+    <row r="89" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR89" s="15"/>
+    </row>
+    <row r="90" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR90" s="15"/>
+    </row>
+    <row r="91" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR91" s="15"/>
+    </row>
+    <row r="92" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR92" s="15"/>
+    </row>
+    <row r="93" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR93" s="15"/>
+    </row>
+    <row r="94" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AO94" s="6"/>
+      <c r="AP94" s="6"/>
+      <c r="AV94" s="6"/>
+      <c r="AW94" s="6"/>
+      <c r="BC94" s="6"/>
+      <c r="BD94" s="6"/>
+      <c r="BJ94" s="6"/>
+      <c r="BK94" s="6"/>
+      <c r="BQ94" s="6"/>
+      <c r="BR94" s="6"/>
+      <c r="BW94" s="6"/>
+      <c r="BX94" s="6"/>
+    </row>
+    <row r="95" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN85" s="15"/>
-      <c r="AQ85" s="15"/>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ86" s="15"/>
-      <c r="AR86" s="15"/>
-    </row>
-    <row r="87" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+    </row>
+    <row r="96" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AH87" s="6"/>
-      <c r="AI87" s="6"/>
-      <c r="AO87" s="6"/>
-      <c r="AP87" s="6"/>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR88" s="15"/>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR89" s="15"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR90" s="15"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR91" s="15"/>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR92" s="15"/>
-    </row>
-    <row r="93" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AH93" s="6"/>
-      <c r="AI93" s="6"/>
-      <c r="AO93" s="6"/>
-      <c r="AP93" s="6"/>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AG100" s="5"/>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+      <c r="AM101" s="5"/>
+      <c r="AN101" s="5"/>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="5"/>
-      <c r="AF102" s="5"/>
-      <c r="AG102" s="5"/>
+      <c r="AQ102" s="5"/>
+      <c r="AR102" s="5"/>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>30</v>
+      <c r="A103" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-      <c r="AJ103" s="5"/>
-      <c r="AK103" s="5"/>
-      <c r="AL103" s="5"/>
-      <c r="AM103" s="5"/>
-      <c r="AN103" s="5"/>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-      <c r="AQ104" s="5"/>
-      <c r="AR104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>31</v>
+      <c r="A105" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
+      <c r="AQ105" s="5"/>
+      <c r="AR105" s="5"/>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-      <c r="AJ106" s="5"/>
-      <c r="AK106" s="5"/>
-      <c r="AL106" s="5"/>
-      <c r="AM106" s="5"/>
-      <c r="AN106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
+      <c r="AO107" s="5"/>
+      <c r="AP107" s="5"/>
       <c r="AQ107" s="5"/>
       <c r="AR107" s="5"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -2075,9 +2574,9 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
@@ -2085,9 +2584,9 @@
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5"/>
@@ -2095,28 +2594,212 @@
       <c r="AM111" s="5"/>
       <c r="AN111" s="5"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM112" s="5"/>
       <c r="AN112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G115" s="10"/>
-      <c r="H115" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="AS116" s="15"/>
+      <c r="AT116" s="15"/>
+      <c r="AU116" s="15"/>
+    </row>
+    <row r="117" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N117" s="20"/>
+      <c r="O117" s="20"/>
+      <c r="AA117" s="20"/>
+      <c r="AB117" s="20"/>
+      <c r="AH117" s="20"/>
+      <c r="AI117" s="20"/>
+      <c r="AO117" s="20"/>
+      <c r="AP117" s="20"/>
+      <c r="AV117" s="20"/>
+      <c r="AW117" s="20"/>
+      <c r="BC117" s="20"/>
+      <c r="BD117" s="20"/>
+      <c r="BJ117" s="20"/>
+      <c r="BK117" s="20"/>
+      <c r="BQ117" s="20"/>
+      <c r="BR117" s="20"/>
+      <c r="BW117" s="20"/>
+      <c r="BX117" s="20"/>
+    </row>
+    <row r="118" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N118" s="20"/>
+      <c r="O118" s="20"/>
+      <c r="AA118" s="20"/>
+      <c r="AB118" s="20"/>
+      <c r="AH118" s="20"/>
+      <c r="AI118" s="20"/>
+      <c r="AO118" s="20"/>
+      <c r="AP118" s="20"/>
+      <c r="AV118" s="20"/>
+      <c r="AW118" s="20"/>
+      <c r="AX118" s="16"/>
+      <c r="AY118" s="16"/>
+      <c r="AZ118" s="16"/>
+      <c r="BA118" s="16"/>
+      <c r="BB118" s="16"/>
+      <c r="BC118" s="20"/>
+      <c r="BD118" s="20"/>
+      <c r="BJ118" s="20"/>
+      <c r="BK118" s="20"/>
+      <c r="BQ118" s="20"/>
+      <c r="BR118" s="20"/>
+      <c r="BW118" s="20"/>
+      <c r="BX118" s="20"/>
+    </row>
+    <row r="119" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N119" s="20"/>
+      <c r="O119" s="20"/>
+      <c r="AA119" s="20"/>
+      <c r="AB119" s="20"/>
+      <c r="AH119" s="20"/>
+      <c r="AI119" s="20"/>
+      <c r="AO119" s="20"/>
+      <c r="AP119" s="20"/>
+      <c r="AV119" s="20"/>
+      <c r="AW119" s="20"/>
+      <c r="AX119" s="16"/>
+      <c r="AY119" s="16"/>
+      <c r="AZ119" s="16"/>
+      <c r="BA119" s="16"/>
+      <c r="BB119" s="16"/>
+      <c r="BC119" s="20"/>
+      <c r="BD119" s="20"/>
+      <c r="BE119" s="16"/>
+      <c r="BF119" s="16"/>
+      <c r="BG119" s="16"/>
+      <c r="BH119" s="16"/>
+      <c r="BI119" s="16"/>
+      <c r="BJ119" s="20"/>
+      <c r="BK119" s="20"/>
+      <c r="BL119" s="16"/>
+      <c r="BM119" s="16"/>
+      <c r="BN119" s="16"/>
+      <c r="BO119" s="16"/>
+      <c r="BP119" s="16"/>
+      <c r="BQ119" s="20"/>
+      <c r="BR119" s="20"/>
+      <c r="BW119" s="20"/>
+      <c r="BX119" s="20"/>
+    </row>
+    <row r="120" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N120" s="20"/>
+      <c r="O120" s="20"/>
+      <c r="AA120" s="20"/>
+      <c r="AB120" s="20"/>
+      <c r="AH120" s="20"/>
+      <c r="AI120" s="20"/>
+      <c r="AO120" s="20"/>
+      <c r="AP120" s="20"/>
+      <c r="AV120" s="20"/>
+      <c r="AW120" s="20"/>
+      <c r="BC120" s="20"/>
+      <c r="BD120" s="20"/>
+      <c r="BJ120" s="20"/>
+      <c r="BK120" s="20"/>
+      <c r="BL120" s="16"/>
+      <c r="BM120" s="16"/>
+      <c r="BN120" s="16"/>
+      <c r="BO120" s="16"/>
+      <c r="BP120" s="16"/>
+      <c r="BQ120" s="20"/>
+      <c r="BR120" s="20"/>
+      <c r="BS120" s="16"/>
+      <c r="BT120" s="16"/>
+      <c r="BU120" s="16"/>
+      <c r="BV120" s="16"/>
+      <c r="BW120" s="20"/>
+      <c r="BX120" s="20"/>
+    </row>
+    <row r="122" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX123" s="15"/>
+      <c r="AY123" s="15"/>
+    </row>
+    <row r="124" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX124" s="15"/>
+      <c r="AY124" s="15"/>
+      <c r="AZ124" s="15"/>
+      <c r="BA124" s="15"/>
+      <c r="BB124" s="15"/>
+    </row>
+    <row r="125" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX125" s="15"/>
+      <c r="AY125" s="15"/>
+      <c r="AZ125" s="15"/>
+      <c r="BA125" s="15"/>
+      <c r="BB125" s="15"/>
+      <c r="BL125" s="15"/>
+      <c r="BM125" s="15"/>
+      <c r="BN125" s="15"/>
+    </row>
+    <row r="126" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE126" s="15"/>
+      <c r="BF126" s="15"/>
+    </row>
+    <row r="127" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE127" s="8"/>
+      <c r="BF127" s="8"/>
+      <c r="BG127" s="15"/>
+      <c r="BH127" s="15"/>
+      <c r="BI127" s="15"/>
+      <c r="BL127" s="15"/>
+      <c r="BM127" s="15"/>
+      <c r="BN127" s="15"/>
+      <c r="BO127" s="15"/>
+      <c r="BP127" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
